--- a/Auswertung_Hauptstudie/Daten_Mittelwert_Std_Konf.xlsx
+++ b/Auswertung_Hauptstudie/Daten_Mittelwert_Std_Konf.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Psychologie\Masterarbeit\Masterarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Psychologie\Masterarbeit\Masterarbeit\Auswertung_Hauptstudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F250894-A1DB-4049-8E35-1D86351AB4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE7B0B1-A4F6-4976-98A8-9C1324A72D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F96843A-023F-46BF-B953-2996632BD500}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{5F96843A-023F-46BF-B953-2996632BD500}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistiken" sheetId="1" r:id="rId1"/>
+    <sheet name="Hypothese 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hypothese 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hypothese 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_Hlk108533465" localSheetId="1">'Hypothese 1'!$B$82</definedName>
+    <definedName name="_Hlk109827606" localSheetId="2">'Hypothese 2'!$C$2</definedName>
+    <definedName name="_Hlk109827610" localSheetId="2">'Hypothese 2'!$C$4</definedName>
+    <definedName name="_Hlk109827613" localSheetId="2">'Hypothese 2'!$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="78">
   <si>
     <t>Gruppe A</t>
   </si>
@@ -83,13 +92,230 @@
   </si>
   <si>
     <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Versuchsbedingungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Riskant</t>
+  </si>
+  <si>
+    <t>Sicher</t>
+  </si>
+  <si>
+    <t>Investitionen (Absolutrbeträge)</t>
+  </si>
+  <si>
+    <t>Investitionen (Prozentwerte)</t>
+  </si>
+  <si>
+    <t>M SD Konfidenzintervall - MD Q1 Q2M SD Konfidenzintervall - MD Q1 Q2</t>
+  </si>
+  <si>
+    <t>% (Konfidenzintervall)</t>
+  </si>
+  <si>
+    <t>Lottogewinn</t>
+  </si>
+  <si>
+    <t>Ersparnis</t>
+  </si>
+  <si>
+    <t>Betrag (in 1000 Euro)</t>
+  </si>
+  <si>
+    <t>Gesamtbetrag</t>
+  </si>
+  <si>
+    <t>Gesamtbetrag100</t>
+  </si>
+  <si>
+    <t>N Versuchsteilnehmende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Vorschlag ist, eine Tabelle anzufertigen, wie im Excel unten skizziert bzw. im zweiten angehängten File. Nachdem die Daten nicht normalverteilt sind, würde ich M, SD und Konfidenzintervalle in die Tabelle schreiben, sowie MD, Quartile 1 und 3. </t>
+  </si>
+  <si>
+    <t>Weiter würde ich die Prozentwerte mit Schwankungsbreite anführen. Interpretieren können wir dann die Unterschiede zwischen den Mittelwerten, wenn sie außerhalb der Konfidenzintervalle der Vergleichswerte liegen.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>RISK_LOTTO_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>RISK_LOTTO_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERSPART_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERSPART_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERBE_GRUPPE_A_NORM</t>
+  </si>
+  <si>
+    <t>RISK_ERBE_GRUPPE_B_NORM</t>
+  </si>
+  <si>
+    <t>RISK_KONTROLLE_NORM</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Std. Deviation</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Percentiles</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>RISK_LOTTO_GRUPPE_A</t>
+  </si>
+  <si>
+    <t>RISK_LOTTO_GRUPPE_B</t>
+  </si>
+  <si>
+    <t>RISK_ERSPART_GRUPPE_A</t>
+  </si>
+  <si>
+    <t>RISK_ERSPART_GRUPPE_B</t>
+  </si>
+  <si>
+    <t>RISK_ERBE_GRUPPE_A</t>
+  </si>
+  <si>
+    <t>RISK_ERBE_GRUPPE_B</t>
+  </si>
+  <si>
+    <t>RISK_KONTROLLE</t>
+  </si>
+  <si>
+    <t>Statistics Percentage</t>
+  </si>
+  <si>
+    <t>Statistics Absolut</t>
+  </si>
+  <si>
+    <t>Hypothese 1a: Ein Lotteriegewinn wird eher in eine riskante Investitionsalternative als in eine sichere Investitionsalternative investiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothese 1b: Eine Erbschaft der Eltern wird eher in eine sichere Investitionsalternative investiert als in eine riskante Investitionsalternative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothese 1c: Ersparnisse aus erarbeitetem Geld werden eher in eine sichere Investitionsalternative als in eine riskante Investitionsalternative investiert. </t>
+  </si>
+  <si>
+    <t>Hypothese 2a: Erbschaften werden weniger riskant investiert als Lotteriegewinne.</t>
+  </si>
+  <si>
+    <t>Hypothese 2b: Lotteriegewinne werden riskanter investiert als Erspartes.</t>
+  </si>
+  <si>
+    <t>Hypothese 2c: Erbschaften werden genauso riskant investiert wie Erspartes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erklärung: ich habe einen Wilkixon Rang Test für abhängige Stichproben verwendet </t>
+  </si>
+  <si>
+    <t>Da ich die Investitionen innerhalb der Gruppen verglichen habe (Erbe mit Lotto in der gleichen Gruppe etc.)</t>
+  </si>
+  <si>
+    <t>Fällt nur für den Vergleich von Erbe mit Erspartem signifikant aus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Was bedeutet, dass Erbe und Erspartes sich </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nicht </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unterscheiden</t>
+    </r>
+  </si>
+  <si>
+    <t>Ich bin mir hier bei meiner Testwahl unsicher</t>
+  </si>
+  <si>
+    <t>Erklärung: ein Ein-Stichproben Wilcoxon Vorzeichentest, da die Daten nicht normalverteilt ist</t>
+  </si>
+  <si>
+    <t>Es wird getestet ob sich die Investition von 50% unterscheidet (was in der Hypothese mit eher bezeichnet wird)</t>
+  </si>
+  <si>
+    <t>Da die Daten nicht normalverteilt sind habe ich einen Kruskal-Wallis Test angewendet</t>
+  </si>
+  <si>
+    <t>Ergebnis: Es gibt keine Mittelwertunterschiede, deswegen wurden keine Folgetests angewendet</t>
+  </si>
+  <si>
+    <t>Hypothese 3: Es gibt einen Unterschied zwischen den Gruppen in Hinsicht auf die Investition in die riskante Alternative.</t>
+  </si>
+  <si>
+    <t>Ursprünglich wollte ich eine ANOVA berechnen um Mittelwertunterschiede ausfindig zu machen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="172" formatCode="###0"/>
+    <numFmt numFmtId="173" formatCode="###0.00"/>
+    <numFmt numFmtId="174" formatCode="###0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +331,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="60"/>
+      <name val="Arial Bold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="62"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="60"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,15 +464,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,14 +543,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard_Tabelle1" xfId="1" xr:uid="{EA9E50B4-9126-4ED9-9DF0-776EFC64CF59}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3198,6 +3617,1011 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184557</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52389344-F507-7573-DEC0-39DB0ED80332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="1866899"/>
+          <a:ext cx="5537607" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>499654</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E844A3E-5B62-D10D-8282-118B5B44B174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458074" y="1838325"/>
+          <a:ext cx="5357405" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497161</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDFD1A9-2FAA-99AB-A2A4-DADA4C81EC78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="3152774"/>
+          <a:ext cx="5802586" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3516586C-C046-61FB-C3FC-1326F1AAC99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2876550" y="4410075"/>
+          <a:ext cx="3419475" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281088</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A368FDBD-B205-D60B-C050-2F3647B4DA95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629524" y="3105149"/>
+          <a:ext cx="4967389" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964253A7-B5EE-7F36-EDF4-7B695F745838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8153400" y="4257675"/>
+          <a:ext cx="3457575" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>69812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28389360-5390-A683-B302-272B14AF119F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="9344025"/>
+          <a:ext cx="5419726" cy="1098512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>550327</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B926EC98-8880-CA1E-362B-17E05AD4D533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="9324975"/>
+          <a:ext cx="5931952" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>646859</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BD747A-D7BC-9281-81BD-9E577A7C74FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="10734675"/>
+          <a:ext cx="5237909" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Grafik 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8232059-C484-8945-2FCB-1C84198841DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2857500" y="12058650"/>
+          <a:ext cx="2876550" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>35339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Grafik 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77454613-83F7-F072-E316-6C14E434AFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734299" y="10763250"/>
+          <a:ext cx="5686425" cy="1168814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Grafik 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D1D1A3-1A69-4F04-62F7-AAACDDD27F51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9315450" y="12001500"/>
+          <a:ext cx="3171825" cy="3171825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>675088</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Grafik 13" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E56F0A2-83EC-D6AD-E387-A37E23A652BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="16373474"/>
+          <a:ext cx="4770838" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>160181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Grafik 14" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA344785-BDB9-3365-5EE6-07AC3B907BD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867649" y="16278224"/>
+          <a:ext cx="5229225" cy="1179357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>621786</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Grafik 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A0F6EF-60CC-BFCE-8BA8-C257E2142D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="17611725"/>
+          <a:ext cx="6393936" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Grafik 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB88BCB-6360-601A-B073-3625C510C5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2362200" y="19107150"/>
+          <a:ext cx="3048000" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546066</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Grafik 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C71C1EA-AE1F-67D4-F1A3-2AD97F5EF0CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="17506950"/>
+          <a:ext cx="6718266" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Grafik 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7461CB3D-BEC5-1A3A-0FD9-D571FF7F0804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9143999" y="18830924"/>
+          <a:ext cx="3514725" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120897</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Ein Bild, das Text, Quittung enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D86E3C-4799-078C-6E52-FB47C9BCEABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="1676399"/>
+          <a:ext cx="10522197" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956BC20F-EC84-4465-EE76-04525005D6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504949" y="1724024"/>
+          <a:ext cx="7308091" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>737842</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3" descr="Ein Bild, das Tisch enthält.&#10;&#10;Automatisch generierte Beschreibung">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758CE9ED-6F0C-CE24-EF4E-4E8D12EA9914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="3352800"/>
+          <a:ext cx="4309717" cy="4448176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3647,22 +5071,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0C89A8-EF14-451A-9758-2F2DD24466D9}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3724,7 +5152,7 @@
       <c r="H5" s="3">
         <v>30000</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3743,7 +5171,7 @@
       <c r="H6" s="3">
         <v>50000</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -3760,7 +5188,7 @@
       <c r="H7" s="3">
         <v>20000</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3769,15 +5197,15 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <f>SUM(G5:G7)</f>
         <v>100000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <f>SUM(H5:H7)</f>
         <v>100000</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="5">
         <v>100000</v>
       </c>
     </row>
@@ -3813,7 +5241,7 @@
       <c r="K12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
         <v>28672.73</v>
       </c>
     </row>
@@ -3825,35 +5253,35 @@
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>3664.8389999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>11423.841</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <v>24401.012999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>4231.67</v>
       </c>
       <c r="H14" s="2">
         <v>11923.84</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -3865,17 +5293,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>6359.99</v>
       </c>
       <c r="H15" s="2">
         <v>17931.330000000002</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3889,7 +5317,7 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>18345.830000000002</v>
       </c>
       <c r="H17" s="2">
@@ -3905,17 +5333,17 @@
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>19547.246999999999</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="4">
         <v>12478.89</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3931,7 +5359,7 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3957,7 +5385,7 @@
       <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>4683.33</v>
       </c>
       <c r="H22" s="2">
@@ -3973,17 +5401,17 @@
       <c r="F23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <v>5854.67</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>4821.66</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -3999,7 +5427,7 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
@@ -4011,8 +5439,1026 @@
       </c>
       <c r="L25" s="1"/>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6">
+        <v>100</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <v>28672.73</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <v>28.67</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="6">
+        <v>100</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="6">
+        <v>28325</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <v>28.33</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="6">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>50.96</v>
+      </c>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6">
+        <v>70</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
+        <v>26.33</v>
+      </c>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="6">
+        <v>20</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <v>23.42</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="6">
+        <v>100</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>29995</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6">
+        <v>30</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="6">
+        <v>30</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6">
+        <v>49.76</v>
+      </c>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6">
+        <v>50</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
+        <v>21.33</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="6">
+        <v>20</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
+        <v>22.03</v>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="68" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="28"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="29"/>
+    </row>
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="17">
+        <v>48</v>
+      </c>
+      <c r="C70" s="19">
+        <v>52.958333333333336</v>
+      </c>
+      <c r="D70" s="19">
+        <v>50.5</v>
+      </c>
+      <c r="E70" s="20">
+        <v>36.64839164177711</v>
+      </c>
+      <c r="F70" s="20">
+        <v>1343.1046099290784</v>
+      </c>
+      <c r="G70" s="17">
+        <v>0</v>
+      </c>
+      <c r="H70" s="17">
+        <v>100</v>
+      </c>
+      <c r="I70" s="19">
+        <v>15.25</v>
+      </c>
+      <c r="J70" s="19">
+        <v>50.5</v>
+      </c>
+      <c r="K70" s="19">
+        <v>92.5</v>
+      </c>
+      <c r="L70" s="19">
+        <v>42.32</v>
+      </c>
+      <c r="M70" s="19">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="17">
+        <v>58</v>
+      </c>
+      <c r="C71" s="19">
+        <v>49.758620689655174</v>
+      </c>
+      <c r="D71" s="19">
+        <v>50</v>
+      </c>
+      <c r="E71" s="20">
+        <v>38.079469232271265</v>
+      </c>
+      <c r="F71" s="20">
+        <v>1450.045977011494</v>
+      </c>
+      <c r="G71" s="17">
+        <v>0</v>
+      </c>
+      <c r="H71" s="17">
+        <v>100</v>
+      </c>
+      <c r="I71" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="J71" s="19">
+        <v>50</v>
+      </c>
+      <c r="K71" s="19">
+        <v>86.75</v>
+      </c>
+      <c r="L71" s="19">
+        <v>39.75</v>
+      </c>
+      <c r="M71" s="19">
+        <v>59.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="17">
+        <v>48</v>
+      </c>
+      <c r="C72" s="19">
+        <v>23.416666666666668</v>
+      </c>
+      <c r="D72" s="19">
+        <v>12</v>
+      </c>
+      <c r="E72" s="20">
+        <v>29.273350987104031</v>
+      </c>
+      <c r="F72" s="20">
+        <v>856.92907801418448</v>
+      </c>
+      <c r="G72" s="17">
+        <v>0</v>
+      </c>
+      <c r="H72" s="17">
+        <v>100</v>
+      </c>
+      <c r="I72" s="19">
+        <v>0</v>
+      </c>
+      <c r="J72" s="19">
+        <v>12</v>
+      </c>
+      <c r="K72" s="19">
+        <v>36</v>
+      </c>
+      <c r="L72" s="19">
+        <v>14.92</v>
+      </c>
+      <c r="M72" s="19">
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="17">
+        <v>58</v>
+      </c>
+      <c r="C73" s="19">
+        <v>22.017241379310345</v>
+      </c>
+      <c r="D73" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="E73" s="20">
+        <v>24.108301969144378</v>
+      </c>
+      <c r="F73" s="20">
+        <v>581.21022383545062</v>
+      </c>
+      <c r="G73" s="17">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17">
+        <v>82</v>
+      </c>
+      <c r="I73" s="19">
+        <v>0</v>
+      </c>
+      <c r="J73" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="K73" s="19">
+        <v>50</v>
+      </c>
+      <c r="L73" s="19">
+        <v>15.68</v>
+      </c>
+      <c r="M73" s="19">
+        <v>28.36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="17">
+        <v>48</v>
+      </c>
+      <c r="C74" s="19">
+        <v>26.208333333333332</v>
+      </c>
+      <c r="D74" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="E74" s="20">
+        <v>27.924638959043104</v>
+      </c>
+      <c r="F74" s="20">
+        <v>779.78546099290804</v>
+      </c>
+      <c r="G74" s="17">
+        <v>0</v>
+      </c>
+      <c r="H74" s="17">
+        <v>100</v>
+      </c>
+      <c r="I74" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="J74" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="K74" s="19">
+        <v>41.5</v>
+      </c>
+      <c r="L74" s="19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M74" s="19">
+        <v>34.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="17">
+        <v>58</v>
+      </c>
+      <c r="C75" s="19">
+        <v>21.327586206896552</v>
+      </c>
+      <c r="D75" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="E75" s="20">
+        <v>24.957780442132695</v>
+      </c>
+      <c r="F75" s="20">
+        <v>622.89080459770116</v>
+      </c>
+      <c r="G75" s="17">
+        <v>0</v>
+      </c>
+      <c r="H75" s="17">
+        <v>100</v>
+      </c>
+      <c r="I75" s="19">
+        <v>0</v>
+      </c>
+      <c r="J75" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="K75" s="19">
+        <v>25.5</v>
+      </c>
+      <c r="L75" s="19">
+        <v>14.77</v>
+      </c>
+      <c r="M75" s="19">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="17">
+        <v>55</v>
+      </c>
+      <c r="C76" s="19">
+        <v>28.672727272727272</v>
+      </c>
+      <c r="D76" s="19">
+        <v>25</v>
+      </c>
+      <c r="E76" s="20">
+        <v>24.401012839827526</v>
+      </c>
+      <c r="F76" s="20">
+        <v>595.40942760942778</v>
+      </c>
+      <c r="G76" s="17">
+        <v>0</v>
+      </c>
+      <c r="H76" s="17">
+        <v>100</v>
+      </c>
+      <c r="I76" s="19">
+        <v>10</v>
+      </c>
+      <c r="J76" s="19">
+        <v>25</v>
+      </c>
+      <c r="K76" s="19">
+        <v>37</v>
+      </c>
+      <c r="L76" s="19">
+        <v>22.08</v>
+      </c>
+      <c r="M76" s="19">
+        <v>35.270000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+    </row>
+    <row r="81" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="30"/>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M82" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="17">
+        <v>48</v>
+      </c>
+      <c r="C83" s="19">
+        <v>5295.833333333333</v>
+      </c>
+      <c r="D83" s="19">
+        <v>5050</v>
+      </c>
+      <c r="E83" s="20">
+        <v>3664.8391641777102</v>
+      </c>
+      <c r="F83" s="20">
+        <v>13431046.099290777</v>
+      </c>
+      <c r="G83" s="17">
+        <v>0</v>
+      </c>
+      <c r="H83" s="17">
+        <v>10000</v>
+      </c>
+      <c r="I83" s="19">
+        <v>1525</v>
+      </c>
+      <c r="J83" s="19">
+        <v>5050</v>
+      </c>
+      <c r="K83" s="19">
+        <v>9250</v>
+      </c>
+      <c r="L83" s="19">
+        <v>4231.67</v>
+      </c>
+      <c r="M83" s="19">
+        <v>6359.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="17">
+        <v>58</v>
+      </c>
+      <c r="C84" s="19">
+        <v>14927.586206896553</v>
+      </c>
+      <c r="D84" s="19">
+        <v>15000</v>
+      </c>
+      <c r="E84" s="20">
+        <v>11423.840769681381</v>
+      </c>
+      <c r="F84" s="20">
+        <v>130504137.93103449</v>
+      </c>
+      <c r="G84" s="17">
+        <v>0</v>
+      </c>
+      <c r="H84" s="17">
+        <v>30000</v>
+      </c>
+      <c r="I84" s="19">
+        <v>4050</v>
+      </c>
+      <c r="J84" s="19">
+        <v>15000</v>
+      </c>
+      <c r="K84" s="19">
+        <v>26025</v>
+      </c>
+      <c r="L84" s="19">
+        <v>11923.84</v>
+      </c>
+      <c r="M84" s="19">
+        <v>17931.330000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="17">
+        <v>48</v>
+      </c>
+      <c r="C85" s="19">
+        <v>4683.333333333333</v>
+      </c>
+      <c r="D85" s="19">
+        <v>2400</v>
+      </c>
+      <c r="E85" s="20">
+        <v>5854.6701974208054</v>
+      </c>
+      <c r="F85" s="20">
+        <v>34277163.120567374</v>
+      </c>
+      <c r="G85" s="17">
+        <v>0</v>
+      </c>
+      <c r="H85" s="17">
+        <v>20000</v>
+      </c>
+      <c r="I85" s="19">
+        <v>0</v>
+      </c>
+      <c r="J85" s="19">
+        <v>2400</v>
+      </c>
+      <c r="K85" s="19">
+        <v>7200</v>
+      </c>
+      <c r="L85" s="19">
+        <v>13616.65</v>
+      </c>
+      <c r="M85" s="19">
+        <v>17016.689999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="17">
+        <v>58</v>
+      </c>
+      <c r="C86" s="19">
+        <v>4403.4482758620688</v>
+      </c>
+      <c r="D86" s="19">
+        <v>3100</v>
+      </c>
+      <c r="E86" s="20">
+        <v>4821.6603938288754</v>
+      </c>
+      <c r="F86" s="20">
+        <v>23248408.953418028</v>
+      </c>
+      <c r="G86" s="17">
+        <v>0</v>
+      </c>
+      <c r="H86" s="17">
+        <v>16400</v>
+      </c>
+      <c r="I86" s="19">
+        <v>0</v>
+      </c>
+      <c r="J86" s="19">
+        <v>3100</v>
+      </c>
+      <c r="K86" s="19">
+        <v>10000</v>
+      </c>
+      <c r="L86" s="19">
+        <v>3135.66</v>
+      </c>
+      <c r="M86" s="19">
+        <v>5671.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="17">
+        <v>48</v>
+      </c>
+      <c r="C87" s="19">
+        <v>18345.833333333332</v>
+      </c>
+      <c r="D87" s="19">
+        <v>13650</v>
+      </c>
+      <c r="E87" s="20">
+        <v>19547.247271330172</v>
+      </c>
+      <c r="F87" s="20">
+        <v>382094875.8865248</v>
+      </c>
+      <c r="G87" s="17">
+        <v>0</v>
+      </c>
+      <c r="H87" s="17">
+        <v>70000</v>
+      </c>
+      <c r="I87" s="19">
+        <v>175</v>
+      </c>
+      <c r="J87" s="19">
+        <v>13650</v>
+      </c>
+      <c r="K87" s="19">
+        <v>29050</v>
+      </c>
+      <c r="L87" s="19">
+        <v>12669.9</v>
+      </c>
+      <c r="M87" s="19">
+        <v>24021.759999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="17">
+        <v>58</v>
+      </c>
+      <c r="C88" s="19">
+        <v>10663.793103448275</v>
+      </c>
+      <c r="D88" s="19">
+        <v>9750</v>
+      </c>
+      <c r="E88" s="20">
+        <v>12478.890221066345</v>
+      </c>
+      <c r="F88" s="20">
+        <v>155722701.14942527</v>
+      </c>
+      <c r="G88" s="17">
+        <v>0</v>
+      </c>
+      <c r="H88" s="17">
+        <v>50000</v>
+      </c>
+      <c r="I88" s="19">
+        <v>0</v>
+      </c>
+      <c r="J88" s="19">
+        <v>9750</v>
+      </c>
+      <c r="K88" s="19">
+        <v>12750</v>
+      </c>
+      <c r="L88" s="19">
+        <v>7382.64</v>
+      </c>
+      <c r="M88" s="19">
+        <v>13944.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="17">
+        <v>55</v>
+      </c>
+      <c r="C89" s="19">
+        <v>28672.727272727272</v>
+      </c>
+      <c r="D89" s="19">
+        <v>25000</v>
+      </c>
+      <c r="E89" s="20">
+        <v>24401.012839827523</v>
+      </c>
+      <c r="F89" s="20">
+        <v>595409427.60942769</v>
+      </c>
+      <c r="G89" s="17">
+        <v>0</v>
+      </c>
+      <c r="H89" s="17">
+        <v>100000</v>
+      </c>
+      <c r="I89" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J89" s="19">
+        <v>25000</v>
+      </c>
+      <c r="K89" s="19">
+        <v>37000</v>
+      </c>
+      <c r="L89" s="19">
+        <v>22076.21</v>
+      </c>
+      <c r="M89" s="19">
+        <v>35269.25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="18">
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="A66:I66"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E19:E20"/>
@@ -4022,4 +6468,193 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A466986D-0566-4A67-92D1-7BABFB65BCC8}">
+  <dimension ref="B3:O84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B82" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F84" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D82802B-0A08-4EF6-B29F-97E867BF698E}">
+  <dimension ref="C2:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C2" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C4" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C59" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C809C41B-C56C-4474-B8A5-FFFCE6F51F09}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>